--- a/data/financial_statements/socf/UAL.xlsx
+++ b/data/financial_statements/socf/UAL.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -104,9 +224,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -159,12 +276,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -461,152 +575,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN28"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>942000000</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>329000000</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1377000000</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-646000000</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>473000000</v>
+        <v>-1964000000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -615,11 +732,11 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>-7069000000</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
@@ -627,11 +744,11 @@
         <v>0</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>3009000000</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
@@ -639,11 +756,11 @@
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>2122000000</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
       <c r="S2">
         <v>0</v>
       </c>
@@ -651,11 +768,11 @@
         <v>0</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>2143000000</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
       <c r="W2">
         <v>0</v>
       </c>
@@ -663,11 +780,11 @@
         <v>0</v>
       </c>
       <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
         <v>2234000000</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
       <c r="AA2">
         <v>0</v>
       </c>
@@ -675,11 +792,11 @@
         <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>7340000000</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
         <v>0</v>
       </c>
@@ -687,11 +804,11 @@
         <v>0</v>
       </c>
       <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
         <v>1132000000</v>
       </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
       <c r="AI2">
         <v>0</v>
       </c>
@@ -699,1057 +816,1075 @@
         <v>0</v>
       </c>
       <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
         <v>571000000</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3">
         <v>2485000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2488000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2288000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2165000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2096000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1977000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1819000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1679000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1739000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4">
         <v>183000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>920000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1360000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1316000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>85000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1870000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>-3033000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>418000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-411000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
         <v>-448000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>135000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>44000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>17000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-73000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-16000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-15000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>209000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-142000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6">
         <v>918000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>932000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>961000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>955000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1070000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1072000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7">
         <v>985000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-1079000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>324000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>130000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>66000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>239000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-77000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-251000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-265000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8">
         <v>1838000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1595000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1831000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1725000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2436000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2703000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>-583000000</v>
-      </c>
-      <c r="I9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9">
+        <v>826000000</v>
+      </c>
+      <c r="J9">
         <v>472000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-116000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>414000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-843000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-762000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-42000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-553000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-48000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>1158000000</v>
+      </c>
+      <c r="C10">
         <v>741000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2691000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1476000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-269000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-786000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2675000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>447000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-2177000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1889000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-130000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>63000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1181000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1103000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>2710000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1915000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1129000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>883000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2443000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1709000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>789000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>577000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1561000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>547000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>658000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>1138000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>2547000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>1199000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1115000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1300000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1752000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>1825000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-98000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>574000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1464000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>694000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-334000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>237000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>1148000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>393000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>-2516000000</v>
+      </c>
+      <c r="C11">
         <v>-1282000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-478000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-336000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-454000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-254000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-859000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-433000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-91000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>368000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-39000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-1959000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-1143000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-869000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-858000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-1609000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-1604000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-795000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-727000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-944000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-978000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-1117000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-1088000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-687000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-904000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-684000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-836000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-799000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-727000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-659000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-1082000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-193000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-639000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-362000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-581000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-329000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-678000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-530000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-438000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-366000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>-764000000</v>
+      </c>
+      <c r="C12">
         <v>-5082000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-3208000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-94000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>376000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-47000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-105000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>105000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>137000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>406000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>838000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>386000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-51000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>73000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-3000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>44000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>60000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-125000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>725000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-596000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-3037000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1383000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-813000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-774000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-779000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-716000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-1288000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>15000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-658000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-2054000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>828000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-633000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-710000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-783000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-1841000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-235000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-98000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>19000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>36000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-77000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>846000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>215000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>62000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>87000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>184000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>105000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2319000000</v>
-      </c>
-      <c r="M13">
-        <v>-36000000</v>
       </c>
       <c r="N13">
         <v>-36000000</v>
       </c>
       <c r="O13">
+        <v>-36000000</v>
+      </c>
+      <c r="P13">
         <v>-27000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>741000000</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>-979000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>840000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>3175000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>751000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>810000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>749000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>693000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1296000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-40000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>768000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>2069000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-892000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>762000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>724000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>786000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1478000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>124000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>-16000000</v>
+        <v>-46000000</v>
       </c>
       <c r="C14">
-        <v>-11000000</v>
+        <v>-10000000</v>
       </c>
       <c r="D14">
+        <v>-13000000</v>
+      </c>
+      <c r="E14">
         <v>-73000000</v>
       </c>
-      <c r="E14">
-        <v>-24000000</v>
-      </c>
       <c r="F14">
-        <v>7000000</v>
+        <v>1000000</v>
       </c>
       <c r="G14">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>-1000000</v>
       </c>
       <c r="I14">
+        <v>-1000000</v>
+      </c>
+      <c r="J14">
         <v>-6000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-4000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>13000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-135000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>5000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-15000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-404000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>66000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>23000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>5000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-9000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>19000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>115000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>8000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>60000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-7000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-271000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>98000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>18000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>19000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-76000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>61000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>39000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>13000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>53000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>45000000</v>
       </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
       <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
         <v>12000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>-4387000000</v>
+      </c>
+      <c r="C15">
         <v>-5528000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-3484000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-430000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-348000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-214000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-781000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-329000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>40000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>770000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>812000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-1572000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-1329000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-795000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-856000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-1580000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-1948000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-854000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-958000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-695000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-849000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-1276000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-1035000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-643000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-874000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-706000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-835000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-823000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-888000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-546000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-1128000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-45000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-701000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-298000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-905000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-427000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-723000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-466000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-402000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-431000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>-880000000</v>
+      </c>
+      <c r="C16">
         <v>-812000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-800000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-783000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-575000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-578000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>6277000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1299000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>482000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>7906000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2382000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2560000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>117000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-182000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>84000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>376000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>123000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-247000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-554000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>466000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>239000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>758000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>146000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>409000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-47000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-52000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-225000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-219000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-233000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>149000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-924000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-220000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-293000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-330000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-85000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-490000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>348000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>46000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-129000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-1161000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1758,447 +1893,459 @@
         <v>0</v>
       </c>
       <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>-353000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-214000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-369000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-549000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-513000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-225000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-41000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-440000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-529000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-553000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-579000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-454000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-258000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-172000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-260000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-790000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-1392000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-507000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-265000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-250000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-195000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-32000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-220000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>29000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>3000000</v>
+      </c>
+      <c r="C18">
         <v>-6000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-73000000</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>-5000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-1000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-21000000</v>
-      </c>
-      <c r="I18">
-        <v>-1000000</v>
       </c>
       <c r="J18">
         <v>-1000000</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-1000000</v>
       </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>-18000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>50000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-20000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-14000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-46000000</v>
-      </c>
-      <c r="Q18">
-        <v>-6000000</v>
       </c>
       <c r="R18">
         <v>-6000000</v>
       </c>
       <c r="S18">
+        <v>-6000000</v>
+      </c>
+      <c r="T18">
         <v>-10000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-32000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-14000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-2000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-10000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-65000000</v>
-      </c>
-      <c r="Y18">
-        <v>-16000000</v>
       </c>
       <c r="Z18">
         <v>-16000000</v>
       </c>
       <c r="AA18">
+        <v>-16000000</v>
+      </c>
+      <c r="AB18">
         <v>-22000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-2000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-22000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-7000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-6000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-15000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-66000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-33000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-59000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>12000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-35000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-25000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-12000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-33000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>-877000000</v>
+      </c>
+      <c r="C19">
         <v>-818000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-798000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-856000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-575000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-583000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>6276000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1278000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>481000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>7905000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2382000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2189000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-47000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-571000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-479000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-183000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-108000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-294000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-1004000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-95000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-328000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>177000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-318000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>86000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-235000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-328000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-1037000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-1613000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-762000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-123000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-1180000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-430000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-391000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-583000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-144000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-478000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>342000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>21000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-141000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-1194000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>-4106000000</v>
+      </c>
+      <c r="C20">
         <v>-5605000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-1591000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>190000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-1192000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-1583000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>8170000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1396000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-1656000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>6786000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3064000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>680000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-195000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-263000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1375000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>152000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-927000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-265000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>481000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>919000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-388000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-522000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>208000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-10000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-451000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>104000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>675000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-1237000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-535000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>631000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-556000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>1350000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-1190000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-307000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>415000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-211000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-715000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>-208000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>605000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-1232000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2207,11 +2354,11 @@
         <v>0</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>18533000000</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
         <v>0</v>
       </c>
@@ -2219,11 +2366,11 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>11742000000</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
         <v>0</v>
       </c>
@@ -2231,11 +2378,11 @@
         <v>0</v>
       </c>
       <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>2868000000</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
         <v>0</v>
       </c>
@@ -2243,11 +2390,11 @@
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>1799000000</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
       <c r="R21">
         <v>0</v>
       </c>
@@ -2255,23 +2402,23 @@
         <v>0</v>
       </c>
       <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <v>1591000000</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
         <v>6000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>2297000000</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
       <c r="Z21">
         <v>0</v>
       </c>
@@ -2279,35 +2426,35 @@
         <v>0</v>
       </c>
       <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
         <v>3212000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>320000000</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>2002000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>395000000</v>
       </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
       <c r="AI21">
         <v>0</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
         <v>3220000000</v>
       </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
       <c r="AL21">
         <v>0</v>
       </c>
@@ -2315,134 +2462,140 @@
         <v>0</v>
       </c>
       <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
         <v>4770000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>-4106000000</v>
+      </c>
+      <c r="C22">
         <v>-5605000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-1591000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>18723000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-1192000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-1583000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>8170000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>13138000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-1656000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>6786000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3064000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>3548000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-195000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-263000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1375000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1951000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-927000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-265000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>481000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2510000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-388000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-522000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>214000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>2287000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-451000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>104000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>675000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1975000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-215000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>631000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-556000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>3352000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-795000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-307000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>415000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>3009000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-715000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-208000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>605000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>3538000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2561,289 +2714,295 @@
       <c r="AN23">
         <v>0</v>
       </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>1.2886</v>
+        <v>1.2231</v>
       </c>
       <c r="C24">
-        <v>1.1386</v>
+        <v>1.2894</v>
       </c>
       <c r="D24">
+        <v>1.1397</v>
+      </c>
+      <c r="E24">
         <v>1.0177</v>
       </c>
-      <c r="E24">
-        <v>1.1261</v>
-      </c>
       <c r="F24">
-        <v>0.9319</v>
+        <v>1.1334</v>
       </c>
       <c r="G24">
+        <v>0.9328</v>
+      </c>
+      <c r="H24">
         <v>1.0657</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.8038</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1.2455</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1.3232</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1.1966</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1.5817</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.648</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.4077</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.388</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.4679</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.65</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.3901</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.4781</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.5468</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.5014999999999999</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.5238</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.3637</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.3769</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.2985</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.3858</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.4867</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.3546</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.2983</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.321</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.3258</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.2556</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.3002</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.3725</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.4163</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.4225</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.5424</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.5619</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.5266</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.6405</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25">
         <v>1363000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-472000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>252000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>561000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-850000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-539000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-134000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-595000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>-455000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>-1825000000</v>
+      </c>
+      <c r="C26">
         <v>-4236000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-2993000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-94000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>105000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>40000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>79000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>105000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>137000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>406000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>838000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>386000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-51000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>73000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-3000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>44000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>60000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-125000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-254000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>244000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>138000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-178000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-62000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>36000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-30000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-23000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>8000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-25000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>110000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>15000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-64000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>129000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>14000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>3000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>-363000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>-111000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-98000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>19000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>36000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>-77000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2852,88 +3011,88 @@
         <v>0</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>-353000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-214000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-369000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-549000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-513000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-225000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-41000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-440000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-529000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-553000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-579000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-454000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-258000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-172000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-260000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-790000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-1392000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-507000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-265000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-250000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-195000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-32000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-220000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>29000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28">
         <v>532000000</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
         <v>0</v>
       </c>
@@ -2941,75 +3100,78 @@
         <v>0</v>
       </c>
       <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>-353000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-214000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-369000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-549000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-513000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-225000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-41000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-440000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-529000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-553000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-579000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-454000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-258000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-172000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-260000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-790000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-1392000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-507000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-265000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-250000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-195000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-32000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-220000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>29000000</v>
       </c>
     </row>
